--- a/data/pca/factorExposure/factorExposure_2013-03-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002755147461690315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.0020327876018772</v>
+      </c>
+      <c r="C2">
+        <v>-0.03228281529812221</v>
+      </c>
+      <c r="D2">
+        <v>0.002099550140464462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001778178224299086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006165518349028707</v>
+      </c>
+      <c r="C4">
+        <v>-0.0846851965455237</v>
+      </c>
+      <c r="D4">
+        <v>0.07993932559531877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.000637999213667367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01369908975123762</v>
+      </c>
+      <c r="C6">
+        <v>-0.1123929205345241</v>
+      </c>
+      <c r="D6">
+        <v>0.0316595102407002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001519689959649655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004842038029941535</v>
+      </c>
+      <c r="C7">
+        <v>-0.05689752400383734</v>
+      </c>
+      <c r="D7">
+        <v>0.03365841018869054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0003922024787153947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005729624343773032</v>
+      </c>
+      <c r="C8">
+        <v>-0.03936956439692364</v>
+      </c>
+      <c r="D8">
+        <v>0.0429837509081631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004076347583737584</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.00427255719535603</v>
+      </c>
+      <c r="C9">
+        <v>-0.07091373841807472</v>
+      </c>
+      <c r="D9">
+        <v>0.0707694314270562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004412501968542783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005368613785732619</v>
+      </c>
+      <c r="C10">
+        <v>-0.05942336457660871</v>
+      </c>
+      <c r="D10">
+        <v>-0.2014775886941456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00257446710051514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005468072170196021</v>
+      </c>
+      <c r="C11">
+        <v>-0.08098588553628139</v>
+      </c>
+      <c r="D11">
+        <v>0.05968849958702895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003875180123519514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004072341947604444</v>
+      </c>
+      <c r="C12">
+        <v>-0.06480804803663912</v>
+      </c>
+      <c r="D12">
+        <v>0.04436164025946948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003343830845812536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008651160727213458</v>
+      </c>
+      <c r="C13">
+        <v>-0.06714442873342315</v>
+      </c>
+      <c r="D13">
+        <v>0.06675648221755857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001224210233486459</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001571819929013223</v>
+      </c>
+      <c r="C14">
+        <v>-0.04717401145299784</v>
+      </c>
+      <c r="D14">
+        <v>0.008060987632519848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009570900858793682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005989659617235348</v>
+      </c>
+      <c r="C15">
+        <v>-0.04332343811819941</v>
+      </c>
+      <c r="D15">
+        <v>0.03103724265925296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001124332807852494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005031994940809613</v>
+      </c>
+      <c r="C16">
+        <v>-0.06682127798562082</v>
+      </c>
+      <c r="D16">
+        <v>0.04483260482538858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001098313364776826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008815600627378843</v>
+      </c>
+      <c r="C20">
+        <v>-0.06726561765007598</v>
+      </c>
+      <c r="D20">
+        <v>0.04596711994130557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005223980015395787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009770038847477958</v>
+      </c>
+      <c r="C21">
+        <v>-0.02348354016535199</v>
+      </c>
+      <c r="D21">
+        <v>0.03375586575359342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01778513516555383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006847165644893006</v>
+      </c>
+      <c r="C22">
+        <v>-0.0947149315882346</v>
+      </c>
+      <c r="D22">
+        <v>0.09868943567467872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01809744758767975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006667540432859465</v>
+      </c>
+      <c r="C23">
+        <v>-0.09550437645701786</v>
+      </c>
+      <c r="D23">
+        <v>0.09881241308533063</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00180260862387223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005117091546676333</v>
+      </c>
+      <c r="C24">
+        <v>-0.07596337113248207</v>
+      </c>
+      <c r="D24">
+        <v>0.05758492910450076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.00380325037285898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002853033927140123</v>
+      </c>
+      <c r="C25">
+        <v>-0.078454298572498</v>
+      </c>
+      <c r="D25">
+        <v>0.06497513207935827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00554896208286776</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003533933274440859</v>
+      </c>
+      <c r="C26">
+        <v>-0.04172141228644308</v>
+      </c>
+      <c r="D26">
+        <v>0.02468865319675924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.003908606058396984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001070012278652661</v>
+      </c>
+      <c r="C28">
+        <v>-0.1059958235637303</v>
+      </c>
+      <c r="D28">
+        <v>-0.3183273799419676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009389023287285656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003049794204486876</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960915298970492</v>
+      </c>
+      <c r="D29">
+        <v>0.00352443121289785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003075579396823449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009030091106186256</v>
+      </c>
+      <c r="C30">
+        <v>-0.1445907700917562</v>
+      </c>
+      <c r="D30">
+        <v>0.1008955033725251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001057524069777785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00617980783888921</v>
+      </c>
+      <c r="C31">
+        <v>-0.04523552349885556</v>
+      </c>
+      <c r="D31">
+        <v>0.03329003089085422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001943832828395852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003934472513186853</v>
+      </c>
+      <c r="C32">
+        <v>-0.04151809319388469</v>
+      </c>
+      <c r="D32">
+        <v>0.02211937659132713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002880488968738137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008155247411668946</v>
+      </c>
+      <c r="C33">
+        <v>-0.08726117388577502</v>
+      </c>
+      <c r="D33">
+        <v>0.06930486339060958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004175137140126443</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003931376231663311</v>
+      </c>
+      <c r="C34">
+        <v>-0.05896387239282608</v>
+      </c>
+      <c r="D34">
+        <v>0.05018507489029845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002286568250572315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004857638115666774</v>
+      </c>
+      <c r="C35">
+        <v>-0.03992598916959988</v>
+      </c>
+      <c r="D35">
+        <v>0.01409510872296383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00399345996879505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001384309887942723</v>
+      </c>
+      <c r="C36">
+        <v>-0.02458098734999196</v>
+      </c>
+      <c r="D36">
+        <v>0.02172950800353613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002695726185259708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009428328912899275</v>
+      </c>
+      <c r="C38">
+        <v>-0.03367426509038085</v>
+      </c>
+      <c r="D38">
+        <v>0.01799656478460422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01221983451500078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008282625362264683</v>
+      </c>
+      <c r="C39">
+        <v>-0.1178361267984025</v>
+      </c>
+      <c r="D39">
+        <v>0.07127302392087907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009075266958382861</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002139296665839052</v>
+      </c>
+      <c r="C40">
+        <v>-0.08837502165809441</v>
+      </c>
+      <c r="D40">
+        <v>0.0166122750475109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002401680805346367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007248417534096977</v>
+      </c>
+      <c r="C41">
+        <v>-0.03848726822855424</v>
+      </c>
+      <c r="D41">
+        <v>0.03461398099717155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003013802218263454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003630924960603099</v>
+      </c>
+      <c r="C43">
+        <v>-0.05235039055523003</v>
+      </c>
+      <c r="D43">
+        <v>0.02295155568357912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002872675653297387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003120402108133815</v>
+      </c>
+      <c r="C44">
+        <v>-0.1116106293843622</v>
+      </c>
+      <c r="D44">
+        <v>0.07082987700420774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001372744866268406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002301640060745355</v>
+      </c>
+      <c r="C46">
+        <v>-0.03479346298161362</v>
+      </c>
+      <c r="D46">
+        <v>0.02970478758730056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002273161283942582</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002700707579778219</v>
+      </c>
+      <c r="C47">
+        <v>-0.03711051378351303</v>
+      </c>
+      <c r="D47">
+        <v>0.02755086325737121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003750072121384564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006424446767485629</v>
+      </c>
+      <c r="C48">
+        <v>-0.02938844935739285</v>
+      </c>
+      <c r="D48">
+        <v>0.03183633705875553</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01320686570756306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01492799620010608</v>
+      </c>
+      <c r="C49">
+        <v>-0.1836761506559461</v>
+      </c>
+      <c r="D49">
+        <v>0.01305986865021833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006244757088502877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003575039358518397</v>
+      </c>
+      <c r="C50">
+        <v>-0.04407934292697918</v>
+      </c>
+      <c r="D50">
+        <v>0.03631864438556391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007232618530768835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004356385196971145</v>
+      </c>
+      <c r="C51">
+        <v>-0.0256535188135799</v>
+      </c>
+      <c r="D51">
+        <v>0.02001850564111146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006920008460793744</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02053489684968289</v>
+      </c>
+      <c r="C53">
+        <v>-0.1692318204833831</v>
+      </c>
+      <c r="D53">
+        <v>0.03895144206858711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001708950732349768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00863163385507334</v>
+      </c>
+      <c r="C54">
+        <v>-0.05585382704128526</v>
+      </c>
+      <c r="D54">
+        <v>0.04190119297087152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004222833394978555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009423602849383707</v>
+      </c>
+      <c r="C55">
+        <v>-0.109983621840896</v>
+      </c>
+      <c r="D55">
+        <v>0.0458605840687875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002983279791894662</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01995981486613786</v>
+      </c>
+      <c r="C56">
+        <v>-0.1757778308945122</v>
+      </c>
+      <c r="D56">
+        <v>0.03566074838817597</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007035126289610396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01964547026375418</v>
+      </c>
+      <c r="C58">
+        <v>-0.1130148146670878</v>
+      </c>
+      <c r="D58">
+        <v>0.04984476386487825</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006752272811547525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009337182612388441</v>
+      </c>
+      <c r="C59">
+        <v>-0.160734731959763</v>
+      </c>
+      <c r="D59">
+        <v>-0.306271699207141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004068498825951858</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02325673038630198</v>
+      </c>
+      <c r="C60">
+        <v>-0.2216010918709596</v>
+      </c>
+      <c r="D60">
+        <v>0.02473835951381217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01391143553229381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001938493418529731</v>
+      </c>
+      <c r="C61">
+        <v>-0.09545112625060514</v>
+      </c>
+      <c r="D61">
+        <v>0.05667416020524017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1686059266854275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1445162708277513</v>
+      </c>
+      <c r="C62">
+        <v>-0.09001075103007322</v>
+      </c>
+      <c r="D62">
+        <v>0.05205870431385246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001245189288974602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006204812085323599</v>
+      </c>
+      <c r="C63">
+        <v>-0.05674185780311688</v>
+      </c>
+      <c r="D63">
+        <v>0.02493865116028232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004889458110886985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01496319926304466</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045707003617741</v>
+      </c>
+      <c r="D64">
+        <v>0.0574506884967707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00216426641997456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01747610683733198</v>
+      </c>
+      <c r="C65">
+        <v>-0.1207381339943039</v>
+      </c>
+      <c r="D65">
+        <v>0.0178001144715173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007048808783701749</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01268925535545024</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599910165786965</v>
+      </c>
+      <c r="D66">
+        <v>0.1117263131413284</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004019705371061851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01554144172229714</v>
+      </c>
+      <c r="C67">
+        <v>-0.06446817113305679</v>
+      </c>
+      <c r="D67">
+        <v>0.0262648596559298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00619370191074213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005838476734036205</v>
+      </c>
+      <c r="C68">
+        <v>-0.08715181453775722</v>
+      </c>
+      <c r="D68">
+        <v>-0.2531513318807315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002772404718079339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006019833508257682</v>
+      </c>
+      <c r="C69">
+        <v>-0.05045313792174733</v>
+      </c>
+      <c r="D69">
+        <v>0.04025044575569756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000258481118253405</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001793048751579716</v>
+      </c>
+      <c r="C70">
+        <v>-0.002283611726217647</v>
+      </c>
+      <c r="D70">
+        <v>0.001203026165231631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002217073539526538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005820222193517891</v>
+      </c>
+      <c r="C71">
+        <v>-0.0969874328074056</v>
+      </c>
+      <c r="D71">
+        <v>-0.3000670180942709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004592598566770199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0156344524694267</v>
+      </c>
+      <c r="C72">
+        <v>-0.1499207957156718</v>
+      </c>
+      <c r="D72">
+        <v>0.02220811431385791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01218441587361724</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02944200707958912</v>
+      </c>
+      <c r="C73">
+        <v>-0.2765946529146078</v>
+      </c>
+      <c r="D73">
+        <v>0.04395571926569419</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004807353071423969</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001698694584287354</v>
+      </c>
+      <c r="C74">
+        <v>-0.1055890109438202</v>
+      </c>
+      <c r="D74">
+        <v>0.04008038245429814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002229756418299051</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01086804164510921</v>
+      </c>
+      <c r="C75">
+        <v>-0.1298281229599325</v>
+      </c>
+      <c r="D75">
+        <v>0.02355776402945199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009388004167974157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02169197078284671</v>
+      </c>
+      <c r="C76">
+        <v>-0.1514125160673793</v>
+      </c>
+      <c r="D76">
+        <v>0.06582835723945046</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009089809370709489</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02343620169335986</v>
+      </c>
+      <c r="C77">
+        <v>-0.1304809348955313</v>
+      </c>
+      <c r="D77">
+        <v>0.04914315509554119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001004342935955343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0144115512143267</v>
+      </c>
+      <c r="C78">
+        <v>-0.09469746218445207</v>
+      </c>
+      <c r="D78">
+        <v>0.06619198679891874</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02376209950021265</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.0374971616870072</v>
+      </c>
+      <c r="C79">
+        <v>-0.1569166793766527</v>
+      </c>
+      <c r="D79">
+        <v>0.03644429864399676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004488329863311978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01057348046541164</v>
+      </c>
+      <c r="C80">
+        <v>-0.04318985828027613</v>
+      </c>
+      <c r="D80">
+        <v>0.02775504041277971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0009967252630898448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01501744181703555</v>
+      </c>
+      <c r="C81">
+        <v>-0.1271789352598389</v>
+      </c>
+      <c r="D81">
+        <v>0.04459795452141956</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005971441624988</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01988776152716396</v>
+      </c>
+      <c r="C82">
+        <v>-0.1449860256393879</v>
+      </c>
+      <c r="D82">
+        <v>0.04451307773235016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008986655774542331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009973021117696847</v>
+      </c>
+      <c r="C83">
+        <v>-0.05686457837836528</v>
+      </c>
+      <c r="D83">
+        <v>0.05577483699908384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01348232574962324</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01167636806835966</v>
+      </c>
+      <c r="C84">
+        <v>-0.03755731910135683</v>
+      </c>
+      <c r="D84">
+        <v>-0.007982686490884036</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01471814451693611</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02807563268627512</v>
+      </c>
+      <c r="C85">
+        <v>-0.1290207272491341</v>
+      </c>
+      <c r="D85">
+        <v>0.04669372321791438</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007469799774234716</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005463496849511599</v>
+      </c>
+      <c r="C86">
+        <v>-0.05049772770528516</v>
+      </c>
+      <c r="D86">
+        <v>0.02238612077996596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004305210154905138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01015028296425954</v>
+      </c>
+      <c r="C87">
+        <v>-0.1316638304814156</v>
+      </c>
+      <c r="D87">
+        <v>0.06393270728568952</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.0128571910086752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.0029917375026635</v>
+      </c>
+      <c r="C88">
+        <v>-0.06729925176385744</v>
+      </c>
+      <c r="D88">
+        <v>0.0094108038677549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01431428899215949</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001709658658129202</v>
+      </c>
+      <c r="C89">
+        <v>-0.1457577850455195</v>
+      </c>
+      <c r="D89">
+        <v>-0.3477029416828611</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00224880046183031</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006631171242239157</v>
+      </c>
+      <c r="C90">
+        <v>-0.121180505857037</v>
+      </c>
+      <c r="D90">
+        <v>-0.3247979206278558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001363023911002849</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01039801996769294</v>
+      </c>
+      <c r="C91">
+        <v>-0.1036900256664384</v>
+      </c>
+      <c r="D91">
+        <v>0.02364800698467107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008449829328533909</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0005203923499042235</v>
+      </c>
+      <c r="C92">
+        <v>-0.1351597466755113</v>
+      </c>
+      <c r="D92">
+        <v>-0.3361029781005763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.000221463500297422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004613943812083108</v>
+      </c>
+      <c r="C93">
+        <v>-0.1042030957033881</v>
+      </c>
+      <c r="D93">
+        <v>-0.3125465437662844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004303632347186901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02240318461198182</v>
+      </c>
+      <c r="C94">
+        <v>-0.1509565424942648</v>
+      </c>
+      <c r="D94">
+        <v>0.05047418655605108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005287877380673581</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01632235790130112</v>
+      </c>
+      <c r="C95">
+        <v>-0.1275905169240079</v>
+      </c>
+      <c r="D95">
+        <v>0.0648004278390239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001825323067574773</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03499425056146273</v>
+      </c>
+      <c r="C97">
+        <v>-0.200381418939314</v>
+      </c>
+      <c r="D97">
+        <v>-0.003185433156281471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004065313345402301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03629674951725177</v>
+      </c>
+      <c r="C98">
+        <v>-0.2464187777649131</v>
+      </c>
+      <c r="D98">
+        <v>0.04885080087609717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838022417522644</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824704245202922</v>
+      </c>
+      <c r="C99">
+        <v>0.1137629093179789</v>
+      </c>
+      <c r="D99">
+        <v>-0.02842147607538472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008471119573117911</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003094968631609799</v>
+      </c>
+      <c r="C101">
+        <v>-0.04973605392816694</v>
+      </c>
+      <c r="D101">
+        <v>0.003683060272674324</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
